--- a/Selenium_DataDriven_Excel/testdata/CalData.xlsx
+++ b/Selenium_DataDriven_Excel/testdata/CalData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\myworkspaces\seleniumwebdriver\seleniumwebdriver\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\git\Selenium-Workspace\Selenium_DataDriven_Excel\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1E6425-ACE5-4449-B9AF-3E85BA385246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F1A4E0-2E17-4B47-AFD6-2F32703347EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16354" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Principle</t>
   </si>
@@ -101,19 +101,12 @@
   </si>
   <si>
     <t>Period(Years)</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,16 +169,6 @@
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -251,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,18 +273,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,34 +586,34 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="24.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="24.54296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="20.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="22.81640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="9" width="23.81640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="9" width="23.81640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="9" width="27.54296875" collapsed="true"/>
-    <col min="9" max="15" customWidth="true" style="9" width="9.1796875" collapsed="true"/>
-    <col min="16" max="16384" style="9" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" width="14" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.5703125" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.85546875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.5703125" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="15" width="9.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
@@ -650,7 +627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -672,11 +649,9 @@
       <c r="G2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="19">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -698,11 +673,9 @@
       <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s" s="20">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -724,11 +697,9 @@
       <c r="G4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s" s="21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
@@ -750,11 +721,9 @@
       <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s" s="22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
@@ -776,9 +745,7 @@
       <c r="G6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s" s="23">
-        <v>27</v>
-      </c>
+      <c r="H6" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -795,7 +762,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -809,17 +776,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.26953125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -839,7 +806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -847,7 +814,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -855,7 +822,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -863,7 +830,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -884,9 +851,9 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J6" s="15"/>
     </row>
   </sheetData>
